--- a/easypoi/src/main/resources/template/export_01_error.xlsx
+++ b/easypoi/src/main/resources/template/export_01_error.xlsx
@@ -23,7 +23,7 @@
     <t>{{fe: students t.name</t>
   </si>
   <si>
-    <t>t.sex=1 ? 男:女</t>
+    <t>t.sexStr</t>
   </si>
   <si>
     <t>fd:(t.birthday;yyyy-MM-dd)</t>
@@ -264,7 +264,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -301,10 +301,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1405,7 +1408,7 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="30.9922" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.9453" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.2578" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.2578" style="1" customWidth="1"/>
     <col min="5" max="256" width="16.3516" style="1" customWidth="1"/>
@@ -1449,115 +1452,115 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
     </row>
